--- a/biology/Botanique/Spondias_mombin/Spondias_mombin.xlsx
+++ b/biology/Botanique/Spondias_mombin/Spondias_mombin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunier mombin
 Le prunier mombin (Spondias mombin) est un arbre d'origine néotropicale appartenant à la famille des Anacardiaceae, que l'on rencontre depuis les régions semi-arides du Mexique, et du Pérou, jusqu'au Brésil, et en Guyane, en passant par les Antilles.
 Il est parfois cultivé (notamment dans le Nord-est Brésilien), pour ses fruits comestibles appelés mombins, qui peuvent être utilisés dans la confection de punch.
 Cet arbre a été naturalisé dans certaines régions d'Afrique, d'Inde, du Bangladesh, du Sri Lanka, d'Indonésie, des Bahamas, et d'autres îles des Caraïbes.
 Le fruit est une drupe jaune ovoïde, d'une taille comprise entre une prune et un citron, recouverte d'une peau coriace renfermant une fine couche de pulpe autour d'un gros noyau. Cette chair présente une saveur agréable, légèrement acidulée et astringente, et à l'odeur suave très forte.
-Les graines ont une teneur en huile de 31,5 %[2].
+Les graines ont une teneur en huile de 31,5 %.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spondias mombin est un arbre à feuilles caduques atteignant jusqu'à 20 mètres de haut et 1,5 mètre de diamètre. Son écorce est épaisse, liégeuse, et profondément fissurée. Lors des coupes, il est rose pâle, virant rapidement. Les branches sont basses et les rameaux glabres. Les feuilles sont imparipennées, avec 5 à 8 paires de folioles opposées avec une foliole terminale, 10 × 5 centimètres, oblongues ou oblongues lancéolées, largement acuminées, glabres. La floraison massive et parfumée a lieu de janvier à mai. Elle se compose de gros panicules terminaux lâches composés de petites fleurs blanches. Les fruits jaunes, de forme ovoïde, apparaissent de juillet à septembre et mesurent près de 4 centimètres, devenant ridés en séchant. Comestibles leur goût est un peu acide avec un arôme puissant. La chair entoure un unique noyau fibreux.
 			Vue générale de Spondias mombin adulte.
@@ -560,7 +574,9 @@
           <t>Utilisation alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe du fruit peut être consommée fraîche, en jus, en concentré, en gelées, ou en sorbets.
 En Thaïlande, ce fruit est utilisé dans le som tam comme un ingrédient secondaire. Les jeunes feuilles, dont le goût est légèrement amer et acidulé, parfois servi cru avec certains types de nam phrik (sauces pimentées Thaïlandaises). Il est également servi avec de la poudre de piment au Bangladesh.
@@ -593,10 +609,12 @@
           <t>Médecine traditionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la médecine traditionnelle, Spondias mombin présente une variété d'utilisations. Le fruit a été utilisé comme diurétique et fébrifuge. L'écorce astringente est utilisée comme émétique et contre la diarrhée, la dysenterie, les hémorroïdes, la gonorrhée, et les leucorrhées. Les fleurs et les feuilles sont utilisées pour confectionner un thé contre des maux d'estomac, les affections hépatiques, l'urétrite, la cystite, et les inflammation[3].
-En Guyane, les différentes populations lui prêtent des vertus comme anti-diarrhéique, contre le maux de ventre, les éruptions cutanées des nourrissons, ou contre les moustiques[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la médecine traditionnelle, Spondias mombin présente une variété d'utilisations. Le fruit a été utilisé comme diurétique et fébrifuge. L'écorce astringente est utilisée comme émétique et contre la diarrhée, la dysenterie, les hémorroïdes, la gonorrhée, et les leucorrhées. Les fleurs et les feuilles sont utilisées pour confectionner un thé contre des maux d'estomac, les affections hépatiques, l'urétrite, la cystite, et les inflammation.
+En Guyane, les différentes populations lui prêtent des vertus comme anti-diarrhéique, contre le maux de ventre, les éruptions cutanées des nourrissons, ou contre les moustiques.
 </t>
         </is>
       </c>
@@ -625,17 +643,19 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Diverses études ont été réalisées concernant sa composition chimique et ses propriétés 
-antivirals[5], 
-anti-bactérienne et molluscicides[6], 
-physiologiques[7], 
-antimicrobiennes[8], 
-phytochimiques et nutritionnelles[9], 
-psychoactives[10], 
-anticorrosives[11], 
-anthelmintiques[12], etc.
+antivirals, 
+anti-bactérienne et molluscicides, 
+physiologiques, 
+antimicrobiennes, 
+phytochimiques et nutritionnelles, 
+psychoactives, 
+anticorrosives, 
+anthelmintiques, etc.
 </t>
         </is>
       </c>
@@ -664,17 +684,19 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Comme toute espèce largement utilisée, Spondias mombin porte de nombreux noms vernaculaires dans différentes langues :
-Caraïbes anglophones (Antilles britanniques) - yellow mombin[13], hog plum
+Caraïbes anglophones (Antilles britanniques) - yellow mombin, hog plum
 Jamaïque - Spanish plum, gully plum, coolie plum
 autres territoires anglophones : hug plum, true yellow mombin, golden apple, Java plum...
 Surinam - Mope
-Guyane[4] :
+Guyane :
 Créole - mombin [monben]
 Haïti : siwèl
-Caraïbes hispanophones, Costa Rica, Mexique - jobo (dérivé de la langue Caraïbe[14])
+Caraïbes hispanophones, Costa Rica, Mexique - jobo (dérivé de la langue Caraïbe)
 Cuba :
 "habla congo" de Palo Mayombe - nkunia guenguere kunansieto, ciruela
 Panama - mangotin.
@@ -693,9 +715,9 @@
 Togo :
 Mina - Aklikon
 Nigeria :
-Yoruba - Iyeye, Yeye[15]
+Yoruba - Iyeye, Yeye
 Igbo - ngulungwu
-Haoussa - isada[16].
+Haoussa - isada.
 Inde :
 Bengali - আমড়া (Amṛa)
 Bangladesh - আমড়া (Amṛa)
